--- a/data/pca/factorExposure/factorExposure_2009-03-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-03-02.xlsx
@@ -14,12 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +695,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01627911175343901</v>
+        <v>-0.01588530302682425</v>
       </c>
       <c r="C2">
-        <v>-0.002013573640780824</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.001497617916848129</v>
+      </c>
+      <c r="D2">
+        <v>0.01011677570531662</v>
+      </c>
+      <c r="E2">
+        <v>-0.01824691122244056</v>
+      </c>
+      <c r="F2">
+        <v>0.006527021190166615</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,175 +748,319 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.08109584915393996</v>
+        <v>-0.08470485176504157</v>
       </c>
       <c r="C4">
-        <v>-0.01955333900557086</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.01569205803832221</v>
+      </c>
+      <c r="D4">
+        <v>0.0871425004087579</v>
+      </c>
+      <c r="E4">
+        <v>0.05150703682131701</v>
+      </c>
+      <c r="F4">
+        <v>-0.01514065347887124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.001554169280873065</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>9.17637664685967e-05</v>
+      </c>
+      <c r="D5">
+        <v>0.001492570072699979</v>
+      </c>
+      <c r="E5">
+        <v>0.001201864080026177</v>
+      </c>
+      <c r="F5">
+        <v>0.003243088126762615</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1652969982145883</v>
+        <v>-0.1688035935949041</v>
       </c>
       <c r="C6">
-        <v>-0.0406863770444713</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.03761116792029196</v>
+      </c>
+      <c r="D6">
+        <v>-0.004722955716149403</v>
+      </c>
+      <c r="E6">
+        <v>0.05722240480287775</v>
+      </c>
+      <c r="F6">
+        <v>-0.008456755861828237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.05375491468284662</v>
+        <v>-0.05875614772517393</v>
       </c>
       <c r="C7">
-        <v>-0.001522458485841536</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.001215636419719933</v>
+      </c>
+      <c r="D7">
+        <v>0.05756336146810785</v>
+      </c>
+      <c r="E7">
+        <v>0.03508981947587842</v>
+      </c>
+      <c r="F7">
+        <v>-0.05578822909593347</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.05747831884329659</v>
+        <v>-0.05413586622533938</v>
       </c>
       <c r="C8">
-        <v>0.009215631691757433</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.01092094687849312</v>
+      </c>
+      <c r="D8">
+        <v>0.03750748292305732</v>
+      </c>
+      <c r="E8">
+        <v>-0.02179531392039023</v>
+      </c>
+      <c r="F8">
+        <v>0.02086207000607398</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.06168057244183564</v>
+        <v>-0.06563156077869006</v>
       </c>
       <c r="C9">
-        <v>-0.01474023607448254</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.01089876658967184</v>
+      </c>
+      <c r="D9">
+        <v>0.09233756748462577</v>
+      </c>
+      <c r="E9">
+        <v>0.07018264589464146</v>
+      </c>
+      <c r="F9">
+        <v>-0.02143416302472923</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.1014642458995181</v>
+        <v>-0.09594920510968687</v>
       </c>
       <c r="C10">
-        <v>-0.0274373418406982</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.02759416751784115</v>
+      </c>
+      <c r="D10">
+        <v>-0.1493110527786843</v>
+      </c>
+      <c r="E10">
+        <v>-0.09490962521666045</v>
+      </c>
+      <c r="F10">
+        <v>0.004759055419143664</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.08196729670107522</v>
+        <v>-0.08001268138011708</v>
       </c>
       <c r="C11">
-        <v>-0.01650852494975262</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.01176805682897043</v>
+      </c>
+      <c r="D11">
+        <v>0.1350555978064747</v>
+      </c>
+      <c r="E11">
+        <v>0.03698592230921963</v>
+      </c>
+      <c r="F11">
+        <v>0.00698264228734855</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.08700807072449596</v>
+        <v>-0.08239186482116874</v>
       </c>
       <c r="C12">
-        <v>-0.0143475855428616</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.008951772065243</v>
+      </c>
+      <c r="D12">
+        <v>0.1523391102650986</v>
+      </c>
+      <c r="E12">
+        <v>0.04000879130834588</v>
+      </c>
+      <c r="F12">
+        <v>-0.006440857654357051</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04175184576073808</v>
+        <v>-0.04213448491668333</v>
       </c>
       <c r="C13">
-        <v>-0.007608359354835049</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.003700113900006483</v>
+      </c>
+      <c r="D13">
+        <v>0.06584996099287689</v>
+      </c>
+      <c r="E13">
+        <v>0.009016607370439057</v>
+      </c>
+      <c r="F13">
+        <v>-0.01763028442575643</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.02013690763920967</v>
+        <v>-0.02256261516847819</v>
       </c>
       <c r="C14">
-        <v>-0.01510757493488969</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.01396557258529936</v>
+      </c>
+      <c r="D14">
+        <v>0.04490373309725319</v>
+      </c>
+      <c r="E14">
+        <v>0.03282743126094438</v>
+      </c>
+      <c r="F14">
+        <v>0.0001465501045908389</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.02984347721978601</v>
+        <v>-0.03206594873303371</v>
       </c>
       <c r="C15">
-        <v>-0.007636848345715151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.006178299643102805</v>
+      </c>
+      <c r="D15">
+        <v>0.05271290995435125</v>
+      </c>
+      <c r="E15">
+        <v>0.02628968911822697</v>
+      </c>
+      <c r="F15">
+        <v>-0.01496630462409044</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.062453014740991</v>
+        <v>-0.06275526374687648</v>
       </c>
       <c r="C16">
-        <v>-0.004870682040845593</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.0002894688486883562</v>
+      </c>
+      <c r="D16">
+        <v>0.146510974697608</v>
+      </c>
+      <c r="E16">
+        <v>0.04849971560185392</v>
+      </c>
+      <c r="F16">
+        <v>0.01379830551716436</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.003726463655076269</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>-0.001265572263445454</v>
+      </c>
+      <c r="D17">
+        <v>0.00348708922169168</v>
+      </c>
+      <c r="E17">
+        <v>-0.0001698115775629258</v>
+      </c>
+      <c r="F17">
+        <v>0.008196937176397462</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.03415916645830809</v>
+        <v>-0.04829247955221774</v>
       </c>
       <c r="C18">
-        <v>-0.0005417344064857633</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>0.0009666130279533356</v>
+      </c>
+      <c r="D18">
+        <v>0.03521293849144511</v>
+      </c>
+      <c r="E18">
+        <v>-0.01467085811255499</v>
+      </c>
+      <c r="F18">
+        <v>0.001176096821526606</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1068,159 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.05993454021378963</v>
+        <v>-0.05993945137211534</v>
       </c>
       <c r="C20">
-        <v>-0.0050386833755673</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.00218797382391194</v>
+      </c>
+      <c r="D20">
+        <v>0.09853874055284173</v>
+      </c>
+      <c r="E20">
+        <v>0.06651728081726115</v>
+      </c>
+      <c r="F20">
+        <v>0.008398045905418768</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.04168453848730835</v>
+        <v>-0.04356916842772331</v>
       </c>
       <c r="C21">
-        <v>-0.01093124497461295</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.0083608229524043</v>
+      </c>
+      <c r="D21">
+        <v>0.054730730049096</v>
+      </c>
+      <c r="E21">
+        <v>-0.01168858349017992</v>
+      </c>
+      <c r="F21">
+        <v>-0.006139281683754669</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.04629784798795429</v>
+        <v>-0.04458869650503321</v>
       </c>
       <c r="C22">
-        <v>-0.005137381068984903</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.002711192512540239</v>
+      </c>
+      <c r="D22">
+        <v>0.02415898593369737</v>
+      </c>
+      <c r="E22">
+        <v>-0.03115329165476953</v>
+      </c>
+      <c r="F22">
+        <v>0.1305060613724495</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.04630692326675911</v>
+        <v>-0.04459647270163036</v>
       </c>
       <c r="C23">
-        <v>-0.005140076407693857</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.00271361318928337</v>
+      </c>
+      <c r="D23">
+        <v>0.02415306251880033</v>
+      </c>
+      <c r="E23">
+        <v>-0.03117768795825023</v>
+      </c>
+      <c r="F23">
+        <v>0.1305455547699605</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.07009372848503966</v>
+        <v>-0.06918711383034014</v>
       </c>
       <c r="C24">
-        <v>-0.005776476751048444</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.001485370599685999</v>
+      </c>
+      <c r="D24">
+        <v>0.1371511376885651</v>
+      </c>
+      <c r="E24">
+        <v>0.04356340589868674</v>
+      </c>
+      <c r="F24">
+        <v>-0.003838156599596924</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.07642260165056897</v>
+        <v>-0.07451659596008045</v>
       </c>
       <c r="C25">
-        <v>-0.008849921678884034</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.004649652227930575</v>
+      </c>
+      <c r="D25">
+        <v>0.1255189430387133</v>
+      </c>
+      <c r="E25">
+        <v>0.02597706209886881</v>
+      </c>
+      <c r="F25">
+        <v>-0.02182617990238442</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05665574156991354</v>
+        <v>-0.06100662685654693</v>
       </c>
       <c r="C26">
-        <v>-0.01884678227086004</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.01621063006900221</v>
+      </c>
+      <c r="D26">
+        <v>0.06764512481590725</v>
+      </c>
+      <c r="E26">
+        <v>0.00442474112176612</v>
+      </c>
+      <c r="F26">
+        <v>0.006745833977856729</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,120 +1228,219 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1623315944089254</v>
+        <v>-0.1656296398652919</v>
       </c>
       <c r="C28">
-        <v>-0.03455982601671446</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.03589852411124596</v>
+      </c>
+      <c r="D28">
+        <v>-0.2378812628013622</v>
+      </c>
+      <c r="E28">
+        <v>-0.03096850821709837</v>
+      </c>
+      <c r="F28">
+        <v>-0.05214101461253841</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02495675249169011</v>
+        <v>-0.02740102088614867</v>
       </c>
       <c r="C29">
-        <v>-0.009889798709252003</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.009343972693956369</v>
+      </c>
+      <c r="D29">
+        <v>0.0421833379149754</v>
+      </c>
+      <c r="E29">
+        <v>-0.003115760994559069</v>
+      </c>
+      <c r="F29">
+        <v>0.02145784857765936</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.04258991171868122</v>
+        <v>-0.04413876162484191</v>
       </c>
       <c r="C30">
-        <v>-0.004102951436638774</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.001033239140045935</v>
+      </c>
+      <c r="D30">
+        <v>0.07881872201610882</v>
+      </c>
+      <c r="E30">
+        <v>0.08851784742265947</v>
+      </c>
+      <c r="F30">
+        <v>-0.07472833843072035</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.05202886754752053</v>
+        <v>-0.05194765000732456</v>
       </c>
       <c r="C31">
-        <v>-0.01991918082484326</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.01753924670976714</v>
+      </c>
+      <c r="D31">
+        <v>0.03712628278069242</v>
+      </c>
+      <c r="E31">
+        <v>0.0115974171286537</v>
+      </c>
+      <c r="F31">
+        <v>0.03224850042259163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04326165305608635</v>
+        <v>-0.04847905213058569</v>
       </c>
       <c r="C32">
-        <v>-0.00121581411654303</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.001340856126923828</v>
+      </c>
+      <c r="D32">
+        <v>0.04124488299105886</v>
+      </c>
+      <c r="E32">
+        <v>0.0160556372518957</v>
+      </c>
+      <c r="F32">
+        <v>0.02037603148245682</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.08144711860765265</v>
+        <v>-0.0840782474173173</v>
       </c>
       <c r="C33">
-        <v>-0.01318152414978011</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.008097213648832981</v>
+      </c>
+      <c r="D33">
+        <v>0.1192565877153088</v>
+      </c>
+      <c r="E33">
+        <v>0.05070192319083779</v>
+      </c>
+      <c r="F33">
+        <v>0.009761063212025295</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.0583766934377645</v>
+        <v>-0.05884748255373971</v>
       </c>
       <c r="C34">
-        <v>-0.01412768689017366</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.009543673169727179</v>
+      </c>
+      <c r="D34">
+        <v>0.1271400029658726</v>
+      </c>
+      <c r="E34">
+        <v>0.04579064007499153</v>
+      </c>
+      <c r="F34">
+        <v>-0.02669065940985296</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02640807005944388</v>
+        <v>-0.02796355256549957</v>
       </c>
       <c r="C35">
-        <v>-0.005330664032700384</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.004484512614362271</v>
+      </c>
+      <c r="D35">
+        <v>0.01686126118591401</v>
+      </c>
+      <c r="E35">
+        <v>0.01230971004105774</v>
+      </c>
+      <c r="F35">
+        <v>0.01831597821477268</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02282484524033518</v>
+        <v>-0.02746818242365164</v>
       </c>
       <c r="C36">
-        <v>-0.008777799245902381</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.007788545157577697</v>
+      </c>
+      <c r="D36">
+        <v>0.0490420807399206</v>
+      </c>
+      <c r="E36">
+        <v>0.04045428671879936</v>
+      </c>
+      <c r="F36">
+        <v>0.01145103018429735</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.003432972587071054</v>
       </c>
       <c r="C37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>-0.000813339988849251</v>
+      </c>
+      <c r="D37">
+        <v>0.004604856453699811</v>
+      </c>
+      <c r="E37">
+        <v>-0.00150713503867797</v>
+      </c>
+      <c r="F37">
+        <v>0.0001601065871891816</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1106,43 +1448,79 @@
       <c r="C38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.08776713244951849</v>
+        <v>-0.08186908436274672</v>
       </c>
       <c r="C39">
-        <v>-0.01873612137236328</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.01358721227286573</v>
+      </c>
+      <c r="D39">
+        <v>0.1527561035643347</v>
+      </c>
+      <c r="E39">
+        <v>0.02651005006844045</v>
+      </c>
+      <c r="F39">
+        <v>0.004701371508698637</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.04436944551332806</v>
+        <v>-0.04965393593411228</v>
       </c>
       <c r="C40">
-        <v>-0.01273548128003787</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.01078190169106359</v>
+      </c>
+      <c r="D40">
+        <v>0.05875837479368396</v>
+      </c>
+      <c r="E40">
+        <v>-0.01236008333223088</v>
+      </c>
+      <c r="F40">
+        <v>-0.004240971249260967</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02772871025339679</v>
+        <v>-0.02962314006714405</v>
       </c>
       <c r="C41">
-        <v>-0.008985223728625615</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.008193178179998931</v>
+      </c>
+      <c r="D41">
+        <v>0.02506935395050301</v>
+      </c>
+      <c r="E41">
+        <v>-0.004459742441828277</v>
+      </c>
+      <c r="F41">
+        <v>0.005987647722779027</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,98 +1528,179 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04235325634833292</v>
+        <v>-0.04133267820035343</v>
       </c>
       <c r="C43">
-        <v>-0.01006462645537988</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.008883495951656785</v>
+      </c>
+      <c r="D43">
+        <v>0.03588778197890123</v>
+      </c>
+      <c r="E43">
+        <v>-0.003549044930520683</v>
+      </c>
+      <c r="F43">
+        <v>0.02456648269068568</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.05566197473199551</v>
+        <v>-0.06381580737972196</v>
       </c>
       <c r="C44">
-        <v>-0.02082872455218104</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.01817703517936865</v>
+      </c>
+      <c r="D44">
+        <v>0.08924003984170795</v>
+      </c>
+      <c r="E44">
+        <v>0.230067522477735</v>
+      </c>
+      <c r="F44">
+        <v>-0.07897350303930137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.0002325744767268337</v>
       </c>
       <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>5.794482043876048e-05</v>
+      </c>
+      <c r="D45">
+        <v>8.628316223909491e-06</v>
+      </c>
+      <c r="E45">
+        <v>-0.0004760814674733063</v>
+      </c>
+      <c r="F45">
+        <v>-0.0002672736324832957</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.02511289820535692</v>
+        <v>-0.02569702291228698</v>
       </c>
       <c r="C46">
-        <v>-0.005427377801135443</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.004310224551581514</v>
+      </c>
+      <c r="D46">
+        <v>0.02768505069288271</v>
+      </c>
+      <c r="E46">
+        <v>-0.0003985247425663132</v>
+      </c>
+      <c r="F46">
+        <v>0.03247474353237261</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.052746664968854</v>
+        <v>-0.05216383976476324</v>
       </c>
       <c r="C47">
-        <v>-0.007655944731810156</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.005791551426766105</v>
+      </c>
+      <c r="D47">
+        <v>0.02228661216132681</v>
+      </c>
+      <c r="E47">
+        <v>-0.01087528591312029</v>
+      </c>
+      <c r="F47">
+        <v>0.05362477055485132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04743786445929185</v>
+        <v>-0.05119308749732187</v>
       </c>
       <c r="C48">
-        <v>-0.006180363947470222</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.003823319160868232</v>
+      </c>
+      <c r="D48">
+        <v>0.06378413799798646</v>
+      </c>
+      <c r="E48">
+        <v>0.009580017667804745</v>
+      </c>
+      <c r="F48">
+        <v>-0.02327277795925534</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.1941741746180763</v>
+        <v>-0.1973185441566162</v>
       </c>
       <c r="C49">
-        <v>-0.03113330943924073</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.02659048092263516</v>
+      </c>
+      <c r="D49">
+        <v>-0.00560845486968731</v>
+      </c>
+      <c r="E49">
+        <v>0.04024339540848077</v>
+      </c>
+      <c r="F49">
+        <v>-0.03533398094912229</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04983294092201809</v>
+        <v>-0.05195077962050964</v>
       </c>
       <c r="C50">
-        <v>-0.01519462112661306</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.01352670314007313</v>
+      </c>
+      <c r="D50">
+        <v>0.03371774390420094</v>
+      </c>
+      <c r="E50">
+        <v>0.02243174794708783</v>
+      </c>
+      <c r="F50">
+        <v>0.0191871883363452</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1249,65 +1708,119 @@
       <c r="C51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1456551332400503</v>
+        <v>-0.1398313539689331</v>
       </c>
       <c r="C52">
-        <v>-0.02619499114245702</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>0.0220891941763338</v>
+      </c>
+      <c r="D52">
+        <v>0.04358942962184636</v>
+      </c>
+      <c r="E52">
+        <v>0.05958938172877854</v>
+      </c>
+      <c r="F52">
+        <v>0.02259285112021519</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.176870792316997</v>
+        <v>-0.1688199715422991</v>
       </c>
       <c r="C53">
-        <v>-0.0320734525333733</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.02816640885573327</v>
+      </c>
+      <c r="D53">
+        <v>0.02060875045818902</v>
+      </c>
+      <c r="E53">
+        <v>0.1174032871857401</v>
+      </c>
+      <c r="F53">
+        <v>0.01298080161992633</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01306896685855338</v>
+        <v>-0.01623878132239203</v>
       </c>
       <c r="C54">
-        <v>-0.01159775360059075</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.01078112214203323</v>
+      </c>
+      <c r="D54">
+        <v>0.03467695895076177</v>
+      </c>
+      <c r="E54">
+        <v>0.008979158088295278</v>
+      </c>
+      <c r="F54">
+        <v>0.01490892668580751</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1200963063270981</v>
+        <v>-0.1172176541591301</v>
       </c>
       <c r="C55">
-        <v>-0.02678296864986616</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.02381322153906112</v>
+      </c>
+      <c r="D55">
+        <v>0.02155440494883569</v>
+      </c>
+      <c r="E55">
+        <v>0.07111740333706362</v>
+      </c>
+      <c r="F55">
+        <v>0.04592213798230659</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1814656754976743</v>
+        <v>-0.1750952681374552</v>
       </c>
       <c r="C56">
-        <v>-0.02972088182625465</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.02626307369788858</v>
+      </c>
+      <c r="D56">
+        <v>0.009425491066821709</v>
+      </c>
+      <c r="E56">
+        <v>0.07758041183358783</v>
+      </c>
+      <c r="F56">
+        <v>0.03946046439895826</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,208 +1828,379 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04346582969743704</v>
+        <v>-0.04373156535221383</v>
       </c>
       <c r="C58">
-        <v>-0.003785912939696422</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.0001194824950515039</v>
+      </c>
+      <c r="D58">
+        <v>0.09813964036834343</v>
+      </c>
+      <c r="E58">
+        <v>-0.01022346585070702</v>
+      </c>
+      <c r="F58">
+        <v>0.03844832679995374</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.178921387090663</v>
+        <v>-0.1828593888776346</v>
       </c>
       <c r="C59">
-        <v>-0.03315990455249487</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.03417903237603442</v>
+      </c>
+      <c r="D59">
+        <v>-0.2019634557591121</v>
+      </c>
+      <c r="E59">
+        <v>-0.08143792863920567</v>
+      </c>
+      <c r="F59">
+        <v>0.007933495195901943</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.218783998059713</v>
+        <v>-0.2145513443752494</v>
       </c>
       <c r="C60">
-        <v>-0.01016176058309988</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.005309933441262877</v>
+      </c>
+      <c r="D60">
+        <v>0.02016780073050381</v>
+      </c>
+      <c r="E60">
+        <v>-0.01466722555267997</v>
+      </c>
+      <c r="F60">
+        <v>0.01055527088173743</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.06820846073935895</v>
+        <v>-0.06498156478188874</v>
       </c>
       <c r="C61">
-        <v>-0.0147427117244778</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.01010186480721596</v>
+      </c>
+      <c r="D61">
+        <v>0.1204687793368645</v>
+      </c>
+      <c r="E61">
+        <v>0.01352907734040489</v>
+      </c>
+      <c r="F61">
+        <v>0.01363684711495111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1686687760134043</v>
+        <v>-0.1654102787440903</v>
       </c>
       <c r="C62">
-        <v>-0.031385501157127</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.02783509083291408</v>
+      </c>
+      <c r="D62">
+        <v>0.009949631567214583</v>
+      </c>
+      <c r="E62">
+        <v>0.06780819482121128</v>
+      </c>
+      <c r="F62">
+        <v>0.04601688163654055</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.03923304585060087</v>
+        <v>-0.04438052720985187</v>
       </c>
       <c r="C63">
-        <v>-0.005035551650236345</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.002896128588965088</v>
+      </c>
+      <c r="D63">
+        <v>0.07097834110945707</v>
+      </c>
+      <c r="E63">
+        <v>0.01316936672653037</v>
+      </c>
+      <c r="F63">
+        <v>0.02124501921956455</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.1112201404475054</v>
+        <v>-0.1096756579485504</v>
       </c>
       <c r="C64">
-        <v>-0.02051133143513666</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.0164459956594267</v>
+      </c>
+      <c r="D64">
+        <v>0.05469308409087872</v>
+      </c>
+      <c r="E64">
+        <v>0.03398259598888061</v>
+      </c>
+      <c r="F64">
+        <v>0.003792923958764135</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1549958135008269</v>
+        <v>-0.1585213743292831</v>
       </c>
       <c r="C65">
-        <v>-0.04675866549696792</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.04430020753644526</v>
+      </c>
+      <c r="D65">
+        <v>-0.03857937774882056</v>
+      </c>
+      <c r="E65">
+        <v>0.05886590641975318</v>
+      </c>
+      <c r="F65">
+        <v>0.00301234017671209</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1073920881709726</v>
+        <v>-0.100418408027793</v>
       </c>
       <c r="C66">
-        <v>-0.01743274135732763</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.01162975661913361</v>
+      </c>
+      <c r="D66">
+        <v>0.1385118675187195</v>
+      </c>
+      <c r="E66">
+        <v>0.02993239676056263</v>
+      </c>
+      <c r="F66">
+        <v>0.003354893276711682</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.05965533609776157</v>
+        <v>-0.0502983619724762</v>
       </c>
       <c r="C67">
-        <v>-0.00643611984542011</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.003927587298501415</v>
+      </c>
+      <c r="D67">
+        <v>0.0639055598917091</v>
+      </c>
+      <c r="E67">
+        <v>-0.05305197481632241</v>
+      </c>
+      <c r="F67">
+        <v>0.07119331239895128</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1306611938778618</v>
+        <v>-0.1352867381346854</v>
       </c>
       <c r="C68">
-        <v>-0.041490761447313</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.04446591229927095</v>
+      </c>
+      <c r="D68">
+        <v>-0.2528555180353076</v>
+      </c>
+      <c r="E68">
+        <v>-0.04434597332753496</v>
+      </c>
+      <c r="F68">
+        <v>-0.08403104875904903</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03920290545131826</v>
+        <v>-0.03905874773310487</v>
       </c>
       <c r="C69">
-        <v>-0.003830406641093938</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.002645071909887273</v>
+      </c>
+      <c r="D69">
+        <v>0.01298794335517489</v>
+      </c>
+      <c r="E69">
+        <v>0.01692208946376916</v>
+      </c>
+      <c r="F69">
+        <v>0.05377818305464895</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.07134145589673579</v>
+        <v>-0.07239946118206113</v>
       </c>
       <c r="C70">
-        <v>0.02147991647929853</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.02328316429032861</v>
+      </c>
+      <c r="D70">
+        <v>0.05204955120838686</v>
+      </c>
+      <c r="E70">
+        <v>-0.3388534137631385</v>
+      </c>
+      <c r="F70">
+        <v>0.17880714612197</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1525878491409816</v>
+        <v>-0.1577713891903928</v>
       </c>
       <c r="C71">
-        <v>-0.04820231387325735</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.05053249273558475</v>
+      </c>
+      <c r="D71">
+        <v>-0.2569834828210172</v>
+      </c>
+      <c r="E71">
+        <v>-0.04894731992727158</v>
+      </c>
+      <c r="F71">
+        <v>-0.0930249308570017</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1400695767567953</v>
+        <v>-0.1461692418719635</v>
       </c>
       <c r="C72">
-        <v>-0.03570269236341354</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.03378312211506995</v>
+      </c>
+      <c r="D72">
+        <v>0.01403673890447909</v>
+      </c>
+      <c r="E72">
+        <v>0.06398077168592382</v>
+      </c>
+      <c r="F72">
+        <v>0.03551790316254937</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.1926391345339372</v>
+        <v>-0.199807788236898</v>
       </c>
       <c r="C73">
-        <v>-0.02419023265275201</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.01823002190761583</v>
+      </c>
+      <c r="D73">
+        <v>0.03389471205618738</v>
+      </c>
+      <c r="E73">
+        <v>0.07156078646822014</v>
+      </c>
+      <c r="F73">
+        <v>0.062710373583011</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.0873764874737956</v>
+        <v>-0.08747042580388287</v>
       </c>
       <c r="C74">
-        <v>-0.01754085003380184</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.01533128957982042</v>
+      </c>
+      <c r="D74">
+        <v>0.02058028856413805</v>
+      </c>
+      <c r="E74">
+        <v>0.08159805937222468</v>
+      </c>
+      <c r="F74">
+        <v>0.0195773113909731</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1261875802918429</v>
+        <v>-0.1190957627434232</v>
       </c>
       <c r="C75">
-        <v>-0.03611235421734729</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.03220028355901076</v>
+      </c>
+      <c r="D75">
+        <v>0.03592726617928955</v>
+      </c>
+      <c r="E75">
+        <v>0.06659616513512336</v>
+      </c>
+      <c r="F75">
+        <v>0.06310842586524291</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1524,285 +2208,519 @@
       <c r="C76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.07482796761229844</v>
+        <v>-0.0880131017679614</v>
       </c>
       <c r="C77">
-        <v>-0.01428820373833938</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.01122489710724421</v>
+      </c>
+      <c r="D77">
+        <v>0.1243049841163576</v>
+      </c>
+      <c r="E77">
+        <v>0.05337357439754514</v>
+      </c>
+      <c r="F77">
+        <v>-0.01988130747378309</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.09362873978992853</v>
+        <v>-0.09672830675884193</v>
       </c>
       <c r="C78">
-        <v>-0.0434381029777617</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.04070732417647422</v>
+      </c>
+      <c r="D78">
+        <v>0.1409201358658603</v>
+      </c>
+      <c r="E78">
+        <v>0.05906631750295668</v>
+      </c>
+      <c r="F78">
+        <v>-0.02152703842596608</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1677029187988276</v>
+        <v>-0.1636769663780706</v>
       </c>
       <c r="C79">
-        <v>-0.03482330004808363</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.0306785742250695</v>
+      </c>
+      <c r="D79">
+        <v>0.02931180659578316</v>
+      </c>
+      <c r="E79">
+        <v>0.04323427827311437</v>
+      </c>
+      <c r="F79">
+        <v>0.04206892080838788</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.07838614793644214</v>
+        <v>-0.07573989820532895</v>
       </c>
       <c r="C80">
-        <v>-0.004869900800507563</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.002118472543032381</v>
+      </c>
+      <c r="D80">
+        <v>0.05571179589022402</v>
+      </c>
+      <c r="E80">
+        <v>-0.01973197298197429</v>
+      </c>
+      <c r="F80">
+        <v>0.04729113256008163</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1135212312355594</v>
+        <v>-0.1074433623120477</v>
       </c>
       <c r="C81">
-        <v>-0.03725195721362133</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.03506477431359706</v>
+      </c>
+      <c r="D81">
+        <v>0.00250630632686749</v>
+      </c>
+      <c r="E81">
+        <v>0.04844369337767722</v>
+      </c>
+      <c r="F81">
+        <v>0.06736938542741612</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1587909440644367</v>
+        <v>-0.1577834182355575</v>
       </c>
       <c r="C82">
-        <v>-0.03422872890137212</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.03079178246957592</v>
+      </c>
+      <c r="D82">
+        <v>-0.006101509311597825</v>
+      </c>
+      <c r="E82">
+        <v>0.1018618522436029</v>
+      </c>
+      <c r="F82">
+        <v>0.007947121779230005</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.05497054095270526</v>
+        <v>-0.05069575748869713</v>
       </c>
       <c r="C83">
-        <v>-0.006622954595538778</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.004321243343954352</v>
+      </c>
+      <c r="D83">
+        <v>0.05056424930036981</v>
+      </c>
+      <c r="E83">
+        <v>-0.01574788499230106</v>
+      </c>
+      <c r="F83">
+        <v>0.003581274742946547</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.05248116308760296</v>
+        <v>-0.04980743144907279</v>
       </c>
       <c r="C84">
-        <v>-0.01382402492863248</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.01108810453316093</v>
+      </c>
+      <c r="D84">
+        <v>0.07597269864515475</v>
+      </c>
+      <c r="E84">
+        <v>0.007857587905803235</v>
+      </c>
+      <c r="F84">
+        <v>0.003545393089193897</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1390979042511779</v>
+        <v>-0.1341032128443019</v>
       </c>
       <c r="C85">
-        <v>-0.03802048345790522</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.03448635641381297</v>
+      </c>
+      <c r="D85">
+        <v>0.02190121844490832</v>
+      </c>
+      <c r="E85">
+        <v>0.08731109842721529</v>
+      </c>
+      <c r="F85">
+        <v>0.02292800803640917</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.08419318788166023</v>
+        <v>-0.08147392577653427</v>
       </c>
       <c r="C86">
-        <v>0.002121470646783781</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.006544630228745377</v>
+      </c>
+      <c r="D86">
+        <v>0.09680817023314654</v>
+      </c>
+      <c r="E86">
+        <v>-0.5662806545659393</v>
+      </c>
+      <c r="F86">
+        <v>0.567102372223748</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.08513624999238301</v>
+        <v>-0.08648043370712567</v>
       </c>
       <c r="C87">
-        <v>-0.02825212520871705</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.02369402782091599</v>
+      </c>
+      <c r="D87">
+        <v>0.08323505675619039</v>
+      </c>
+      <c r="E87">
+        <v>0.007806028427601159</v>
+      </c>
+      <c r="F87">
+        <v>-0.1177739632471717</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.0628650187811761</v>
+        <v>-0.06173486976855995</v>
       </c>
       <c r="C88">
-        <v>-0.007669380898335252</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.005122841798007501</v>
+      </c>
+      <c r="D88">
+        <v>0.06650310600604262</v>
+      </c>
+      <c r="E88">
+        <v>0.01875538139001868</v>
+      </c>
+      <c r="F88">
+        <v>0.01584443350642625</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1380244851880174</v>
+        <v>-0.1418525533093607</v>
       </c>
       <c r="C89">
-        <v>-0.0211797185949403</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.02424549571768812</v>
+      </c>
+      <c r="D89">
+        <v>-0.2270699603332908</v>
+      </c>
+      <c r="E89">
+        <v>-0.0441523441359569</v>
+      </c>
+      <c r="F89">
+        <v>-0.09031904518610882</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1650437203371819</v>
+        <v>-0.1733493734907299</v>
       </c>
       <c r="C90">
-        <v>-0.04483080240165754</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.04788321734210804</v>
+      </c>
+      <c r="D90">
+        <v>-0.2471937163587591</v>
+      </c>
+      <c r="E90">
+        <v>-0.07291921599230948</v>
+      </c>
+      <c r="F90">
+        <v>-0.1222318248011665</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1258897024115873</v>
+        <v>-0.120322451303394</v>
       </c>
       <c r="C91">
-        <v>-0.02875931601325475</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.02641534193261982</v>
+      </c>
+      <c r="D91">
+        <v>-0.01077740347820529</v>
+      </c>
+      <c r="E91">
+        <v>0.03615573318228544</v>
+      </c>
+      <c r="F91">
+        <v>0.09864272876036424</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1624941624099062</v>
+        <v>-0.1644716514580908</v>
       </c>
       <c r="C92">
-        <v>-0.03519815339329187</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.03809962874906629</v>
+      </c>
+      <c r="D92">
+        <v>-0.2849071553538855</v>
+      </c>
+      <c r="E92">
+        <v>-0.05692424578426496</v>
+      </c>
+      <c r="F92">
+        <v>-0.08233648497070335</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1680102233283224</v>
+        <v>-0.1760231010452565</v>
       </c>
       <c r="C93">
-        <v>-0.04086172196357811</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.04280664668244491</v>
+      </c>
+      <c r="D93">
+        <v>-0.2387013437738903</v>
+      </c>
+      <c r="E93">
+        <v>-0.02986454540082604</v>
+      </c>
+      <c r="F93">
+        <v>-0.05996304309118086</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1222272445973964</v>
+        <v>-0.1165674243492466</v>
       </c>
       <c r="C94">
-        <v>-0.0309214560114161</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.02696906939968121</v>
+      </c>
+      <c r="D94">
+        <v>0.04689943309427431</v>
+      </c>
+      <c r="E94">
+        <v>0.06201979985284439</v>
+      </c>
+      <c r="F94">
+        <v>0.06241466185764205</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1242985762959972</v>
+        <v>-0.1271112755083878</v>
       </c>
       <c r="C95">
-        <v>-0.01381126790171992</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.008181291365009065</v>
+      </c>
+      <c r="D95">
+        <v>0.1236657389979108</v>
+      </c>
+      <c r="E95">
+        <v>0.01115517827250614</v>
+      </c>
+      <c r="F95">
+        <v>0.0389085235700102</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.1790106018927538</v>
+        <v>-0.15879457061173</v>
       </c>
       <c r="C96">
-        <v>0.9779754884546402</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>-0.9804937240833084</v>
+      </c>
+      <c r="D96">
+        <v>-0.0577732382355034</v>
+      </c>
+      <c r="E96">
+        <v>0.06254325821975665</v>
+      </c>
+      <c r="F96">
+        <v>0.01089176090046815</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1896734388963523</v>
+        <v>-0.193438808462118</v>
       </c>
       <c r="C97">
-        <v>-0.007202062465145877</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.002219648440325564</v>
+      </c>
+      <c r="D97">
+        <v>-0.02170459718309235</v>
+      </c>
+      <c r="E97">
+        <v>-0.1504657288284821</v>
+      </c>
+      <c r="F97">
+        <v>0.08578916259053319</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.1894684018601713</v>
+        <v>-0.1965893209473703</v>
       </c>
       <c r="C98">
-        <v>-0.01896419584608863</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.01351710552789769</v>
+      </c>
+      <c r="D98">
+        <v>0.00932161870473735</v>
+      </c>
+      <c r="E98">
+        <v>-0.125181711647791</v>
+      </c>
+      <c r="F98">
+        <v>-0.04509365636261947</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05596611128858878</v>
+        <v>-0.0561329476816493</v>
       </c>
       <c r="C99">
-        <v>0.0004975687430813408</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.00266928751154386</v>
+      </c>
+      <c r="D99">
+        <v>0.06084582622825423</v>
+      </c>
+      <c r="E99">
+        <v>0.006754008151122894</v>
+      </c>
+      <c r="F99">
+        <v>0.004507993403388325</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1165778690836351</v>
+        <v>-0.1094994931263388</v>
       </c>
       <c r="C100">
-        <v>0.03452727679391569</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>-0.04138451561039485</v>
+      </c>
+      <c r="D100">
+        <v>0.3188609074493062</v>
+      </c>
+      <c r="E100">
+        <v>-0.5403616015576951</v>
+      </c>
+      <c r="F100">
+        <v>-0.67593698673956</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.0248946752317118</v>
+        <v>-0.02734436861350911</v>
       </c>
       <c r="C101">
-        <v>-0.00990879106995091</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.009392260529801005</v>
+      </c>
+      <c r="D101">
+        <v>0.04173848124723856</v>
+      </c>
+      <c r="E101">
+        <v>-0.00547085976994002</v>
+      </c>
+      <c r="F101">
+        <v>0.02277139377653353</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +2728,19 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +2748,33 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
